--- a/vegcart/src/main/resources/requirement.xlsx
+++ b/vegcart/src/main/resources/requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vivek\work\bitbucket\vegcart\vegcart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438AC2BC-87E6-47BD-9B3A-673BCBEBC613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2640FD87-013F-4162-B8C9-11172CE1E15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>S.No.</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>Hide All options other than vegetables</t>
+  </si>
+  <si>
+    <t>If adding same item in cart quantity should increase item should not increase each time</t>
+  </si>
+  <si>
+    <t>Main Page</t>
+  </si>
+  <si>
+    <t>There should be a cart page where all items we can see</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/#</t>
+  </si>
+  <si>
+    <t>In mobile view add button should always appear</t>
   </si>
 </sst>
 </file>
@@ -187,12 +205,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,15 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
@@ -496,7 +521,7 @@
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -522,7 +547,7 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -536,7 +561,7 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -550,7 +575,7 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -564,7 +589,7 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -578,7 +603,7 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -592,7 +617,7 @@
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -606,7 +631,7 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -620,7 +645,7 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -634,7 +659,7 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -648,7 +673,7 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -662,7 +687,7 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -676,7 +701,7 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -690,7 +715,7 @@
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -704,7 +729,7 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -718,7 +743,7 @@
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -732,11 +757,67 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -752,8 +833,12 @@
     <hyperlink ref="D15" r:id="rId9" xr:uid="{0FD7D241-FACD-49B7-BDDE-6C61C40F1958}"/>
     <hyperlink ref="D16" r:id="rId10" xr:uid="{42B9E243-C923-4DF0-8758-5B4A9D47556F}"/>
     <hyperlink ref="D17" r:id="rId11" xr:uid="{01DB61AB-0F01-48F0-B500-C86C288E7C8C}"/>
+    <hyperlink ref="D18" r:id="rId12" display="http://localhost:8080/" xr:uid="{8B7FF537-0751-44F0-A80A-2FBCA63B11EE}"/>
+    <hyperlink ref="D19" r:id="rId13" display="http://localhost:8080/" xr:uid="{5DC0BD46-D4CD-46B6-B949-76D6F72B9924}"/>
+    <hyperlink ref="D20" r:id="rId14" display="http://localhost:8080/" xr:uid="{8CD494F2-8395-4D8C-B176-6BECA8C9A6E7}"/>
+    <hyperlink ref="D21" r:id="rId15" display="http://localhost:8080/" xr:uid="{3A5FCCCE-6707-4D06-9B12-B3CEF4077438}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>